--- a/00_python_projects/01_numpy/notes.xlsx
+++ b/00_python_projects/01_numpy/notes.xlsx
@@ -4,20 +4,140 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="tables" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Python List</t>
+  </si>
+  <si>
+    <t>NumPy Array</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Manual loops</t>
+  </si>
+  <si>
+    <t>Vectorized</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Mixed allowed</t>
+  </si>
+  <si>
+    <t>Same type only</t>
+  </si>
+  <si>
+    <t>Create a 4×4 matrix with values 1–16.</t>
+  </si>
+  <si>
+    <t>Generate 100 random numbers and find mean &amp; std.</t>
+  </si>
+  <si>
+    <t>Create an array of even numbers from 10–50.</t>
+  </si>
+  <si>
+    <t>Reshape a 1D 12-element array into 3×4 form.</t>
+  </si>
+  <si>
+    <t>Join two arrays vertically and horizontally.</t>
+  </si>
+  <si>
+    <t>Filter numbers divisible by 3 from an array.</t>
+  </si>
+  <si>
+    <t>Create identity matrix of size 5.</t>
+  </si>
+  <si>
+    <t>Find eigenvalues of a 3×3 matrix.</t>
+  </si>
+  <si>
+    <t>Save and load a NumPy array.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Explain difference between </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>copy()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>view()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +145,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +182,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,24 +503,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="29">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="29">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -370,7 +647,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
